--- a/binomial_excel/Binomial model.xlsx
+++ b/binomial_excel/Binomial model.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\Option-Pricing\binomial_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F65037-F6B2-4EA3-817A-24CBEFF63B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B921433B-78B1-4896-BDEA-EEC4C52D1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EU CALL" sheetId="1" r:id="rId1"/>
     <sheet name="EU PUT" sheetId="2" r:id="rId2"/>
-    <sheet name="American PUT" sheetId="3" r:id="rId3"/>
+    <sheet name="American CALL" sheetId="4" r:id="rId3"/>
+    <sheet name="American PUT" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="66">
   <si>
     <t>Parameters</t>
   </si>
@@ -234,6 +235,9 @@
   </si>
   <si>
     <t>If execise</t>
+  </si>
+  <si>
+    <t>=9/252</t>
   </si>
 </sst>
 </file>
@@ -369,7 +373,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1419,11 +1423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D8B01D-8D26-4257-869E-268D6C08267E}">
   <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1467,14 +1471,14 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>28.51</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="2">
         <f>P7*E15</f>
-        <v>164.87212707001282</v>
+        <v>37.853682143748451</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
@@ -1482,14 +1486,14 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="R4" s="4">
         <f>MAX(R5,R6)</f>
-        <v>0</v>
+        <v>7.8536821437484505</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
@@ -1497,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>1E-4</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>63</v>
@@ -1517,8 +1521,8 @@
         <v>64</v>
       </c>
       <c r="R6" s="11">
-        <f>IF(($E$13-R3) &gt; 0, $E$13 -R3, 0)</f>
-        <v>0</v>
+        <f>IF((R3-$E$13) &gt; 0, R3-$E$13, 0)</f>
+        <v>7.8536821437484505</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
@@ -1526,14 +1530,18 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f>9/252</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="2">
         <f>N11*E15</f>
-        <v>145.49914146182013</v>
+        <v>35.263904979933699</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
@@ -1548,7 +1556,7 @@
       </c>
       <c r="P8" s="4">
         <f>MAX(P9,P10)</f>
-        <v>0</v>
+        <v>5.2639317656360252</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
@@ -1557,7 +1565,7 @@
       </c>
       <c r="P9" s="9">
         <f>(R4*$E$19+R12*$E$20)*EXP(-$E$5*$E$10)</f>
-        <v>0</v>
+        <v>5.2639317656360252</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
@@ -1566,14 +1574,14 @@
       </c>
       <c r="E10">
         <f>E7/E8</f>
-        <v>0.25</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P10" s="11">
-        <f>IF(($E$13-P7) &gt; 0, $E$13 -P7, 0)</f>
-        <v>0</v>
+        <f>IF((P7-$E$13) &gt; 0, P7-$E$13, 0)</f>
+        <v>5.2639049799336988</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
@@ -1583,14 +1591,14 @@
       </c>
       <c r="N11" s="2">
         <f>L15*E15</f>
-        <v>128.40254166877415</v>
+        <v>32.851308618048513</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R11" s="2">
         <f>P7*E16</f>
-        <v>128.40254166877415</v>
+        <v>32.851308618048513</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
@@ -1599,14 +1607,14 @@
       </c>
       <c r="N12" s="4">
         <f>MAX(N13,N14)</f>
-        <v>4.513468081996832</v>
+        <v>3.2507064916459432</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="R12" s="4">
         <f>MAX(R13,R14)</f>
-        <v>0</v>
+        <v>2.8513086180485132</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
@@ -1614,14 +1622,14 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="9">
         <f>(P8*$E$19+P16*$E$20)*EXP(-$E$5*$E$10)</f>
-        <v>4.513468081996832</v>
+        <v>3.2507064916459432</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>63</v>
@@ -1635,15 +1643,15 @@
         <v>64</v>
       </c>
       <c r="N14" s="11">
-        <f>IF(($E$13-N11) &gt; 0, $E$13 -N11, 0)</f>
-        <v>0</v>
+        <f>IF((N11-$E$13) &gt; 0, N11-$E$13, 0)</f>
+        <v>2.8513086180485132</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="R14" s="11">
-        <f>IF(($E$13-R11) &gt; 0, $E$13 -R11, 0)</f>
-        <v>0</v>
+        <f>IF((R11-$E$13) &gt; 0, R11-$E$13, 0)</f>
+        <v>2.8513086180485132</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
@@ -1652,7 +1660,7 @@
       </c>
       <c r="E15">
         <f>EXP(E4*SQRT(E10))</f>
-        <v>1.1331484530668263</v>
+        <v>1.0734398860616379</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>42</v>
@@ -1664,14 +1672,14 @@
       </c>
       <c r="L15" s="2">
         <f>J19*E15</f>
-        <v>113.31484530668263</v>
+        <v>30.603771151617298</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P15" s="2">
         <f>N11*E16</f>
-        <v>113.31484530668264</v>
+        <v>30.603771151617302</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
@@ -1680,7 +1688,7 @@
       </c>
       <c r="E16">
         <f>EXP(-E4*SQRT(E10))</f>
-        <v>0.88249690258459546</v>
+        <v>0.93158453769490279</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>42</v>
@@ -1692,14 +1700,14 @@
       </c>
       <c r="L16" s="4">
         <f>MAX(L17,L18)</f>
-        <v>11.81429256463484</v>
+        <v>1.9111655709376003</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="4">
         <f>MAX(P17,P18)</f>
-        <v>9.5010189790325423</v>
+        <v>1.3751752835664997</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.45">
@@ -1708,14 +1716,14 @@
       </c>
       <c r="L17" s="9">
         <f>(N12*$E$19+N20*$E$20)*EXP(-$E$5*$E$10)</f>
-        <v>11.81429256463484</v>
+        <v>1.9111655709376003</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="9">
         <f>(R12*$E$19+R20*$E$20)*EXP(-$E$5*$E$10)</f>
-        <v>9.5010189790325423</v>
+        <v>1.3751752835664997</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.45">
@@ -1726,15 +1734,15 @@
         <v>64</v>
       </c>
       <c r="L18" s="11">
-        <f>IF(($E$13-L15) &gt; 0, $E$13 -L15, 0)</f>
-        <v>6.6851546933173722</v>
+        <f>IF((L15-$E$13) &gt; 0, L15-$E$13, 0)</f>
+        <v>0.60377115161729833</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P18" s="11">
-        <f>IF(($E$13-P15) &gt; 0, $E$13 -P15, 0)</f>
-        <v>6.685154693317358</v>
+        <f>IF((P15-$E$13) &gt; 0, P15-$E$13, 0)</f>
+        <v>0.60377115161730188</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.45">
@@ -1743,7 +1751,7 @@
       </c>
       <c r="E19">
         <f>(EXP(E5*E10) - E16)/(E15-E16)</f>
-        <v>0.51897364570765214</v>
+        <v>0.48229662082083485</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>46</v>
@@ -1755,21 +1763,21 @@
       </c>
       <c r="J19" s="2">
         <f>E3</f>
-        <v>100</v>
+        <v>28.51</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="2">
         <f>L15*E16</f>
-        <v>100</v>
+        <v>28.510000000000005</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R19" s="2">
         <f>P15*E16</f>
-        <v>100.00000000000001</v>
+        <v>28.510000000000009</v>
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.45">
@@ -1778,7 +1786,7 @@
       </c>
       <c r="E20">
         <f>1-E19</f>
-        <v>0.48102635429234786</v>
+        <v>0.5177033791791652</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>47</v>
@@ -1790,6 +1798,643 @@
       </c>
       <c r="J20" s="12">
         <f>MAX(J21,J22)</f>
+        <v>1.087350161644085</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="4">
+        <f>MAX(N21,N22)</f>
+        <v>0.6632418001200131</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="4">
+        <f>MAX(R21,R22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="I21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="9">
+        <f>(L16*$E$19+L24*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>1.087350161644085</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="9">
+        <f>(P16*$E$19+P24*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0.6632418001200131</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="I22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="11">
+        <f>IF((J19-$E$13) &gt; 0, J19-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="11">
+        <f>IF((N19-$E$13) &gt; 0, N19-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="11">
+        <f>IF((R19-$E$13) &gt; 0, R19-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <f>J19*E16</f>
+        <v>26.559475169681679</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="2">
+        <f>N19*E16</f>
+        <v>26.559475169681683</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="K24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="4">
+        <f>MAX(L25,L26)</f>
+        <v>0.31987899337863834</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="4">
+        <f>MAX(P25,P26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="K25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="9">
+        <f>(N20*$E$19+N28*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0.31987899337863834</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="9">
+        <f>(R20*$E$19+R28*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="K26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="11">
+        <f>IF((L23-$E$13) &gt; 0, L23-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="11">
+        <f>IF((P23-$E$13) &gt; 0, P23-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="M27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="2">
+        <f>L23*E16</f>
+        <v>24.742396397367155</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="2">
+        <f>P31*E15</f>
+        <v>24.742396397367155</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="M28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="4">
+        <f>MAX(N29,N30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="4">
+        <f>MAX(R29,R30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="M29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="9">
+        <f>(P24*$E$19+P32*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="M30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="11">
+        <f>IF((N27-$E$13) &gt; 0, N27-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="11">
+        <f>IF((R27-$E$13) &gt; 0, R27-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="O31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="2">
+        <f>N27*E16</f>
+        <v>23.04963390930531</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="O32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="4">
+        <f>MAX(P33,P34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="9">
+        <f>(R28*$E$19+R36*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="O34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="11">
+        <f>IF((P31-$E$13) &gt; 0, P31-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="Q35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" s="2">
+        <f>P31*E16</f>
+        <v>21.472682549436943</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="Q36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" s="4">
+        <f>MAX(R37,R38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="Q37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" x14ac:dyDescent="0.45">
+      <c r="Q38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="11">
+        <f>IF((R35-$E$13) &gt; 0, R35-$E$13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:R38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="1.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2">
+        <f>P7*E15</f>
+        <v>164.87212707001282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="4">
+        <f>MAX(R5,R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="11">
+        <f>IF(($E$13-R3) &gt; 0, $E$13 -R3, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2">
+        <f>N11*E15</f>
+        <v>145.49914146182013</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="4">
+        <f>MAX(P9,P10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="O9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9">
+        <f>(R4*$E$19+R12*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f>E7/E8</f>
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="11">
+        <f>IF(($E$13-P7) &gt; 0, $E$13 -P7, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="I11" s="7"/>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2">
+        <f>L15*E15</f>
+        <v>128.40254166877415</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="2">
+        <f>P7*E16</f>
+        <v>128.40254166877415</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="M12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4">
+        <f>MAX(N13,N14)</f>
+        <v>4.513468081996832</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="4">
+        <f>MAX(R13,R14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="9">
+        <f>(P8*$E$19+P16*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>4.513468081996832</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="M14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="11">
+        <f>IF(($E$13-N11) &gt; 0, $E$13 -N11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="11">
+        <f>IF(($E$13-R11) &gt; 0, $E$13 -R11, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f>EXP(E4*SQRT(E10))</f>
+        <v>1.1331484530668263</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2">
+        <f>J19*E15</f>
+        <v>113.31484530668263</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2">
+        <f>N11*E16</f>
+        <v>113.31484530668264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <f>EXP(-E4*SQRT(E10))</f>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4">
+        <f>MAX(L17,L18)</f>
+        <v>11.81429256463484</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="4">
+        <f>MAX(P17,P18)</f>
+        <v>9.5010189790325423</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="K17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="9">
+        <f>(N12*$E$19+N20*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>11.81429256463484</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="9">
+        <f>(R12*$E$19+R20*$E$20)*EXP(-$E$5*$E$10)</f>
+        <v>9.5010189790325423</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="11">
+        <f>IF(($E$13-L15) &gt; 0, $E$13 -L15, 0)</f>
+        <v>6.6851546933173722</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="11">
+        <f>IF(($E$13-P15) &gt; 0, $E$13 -P15, 0)</f>
+        <v>6.685154693317358</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f>(EXP(E5*E10) - E16)/(E15-E16)</f>
+        <v>0.51897364570765214</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2">
+        <f>E3</f>
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="2">
+        <f>L15*E16</f>
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2">
+        <f>P15*E16</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <f>1-E19</f>
+        <v>0.48102635429234786</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="12">
+        <f>MAX(J21,J22)</f>
         <v>21.138156943578245</v>
       </c>
       <c r="M20" s="3" t="s">
